--- a/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +657,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-35,79%</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>-35,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,56%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-15,73%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,67</t>
+          <t>-4,24; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,89</t>
+          <t>-1,33; 2,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,8</t>
+          <t>-0,48; 1,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 7,2</t>
+          <t>-1,47; 1,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-82,06; 62,11</t>
+          <t>-1,44; 2,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-58,61; 155,37</t>
+          <t>-2,7; 1,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 282,84</t>
+          <t>-85,05; 56,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-50,72; 121,65</t>
+          <t>-51,1; 164,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-32,14; 296,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-50,76; 104,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-30,74; 100,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-57,88; 90,84</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>308,79%</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>407,69%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>293,42%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>467,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>101,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>71,15%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,67</t>
+          <t>-1,09; 1,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,08</t>
+          <t>0,39; 3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,52</t>
+          <t>0,78; 7,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 27,28</t>
+          <t>-0,83; 6,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,1; 279,07</t>
+          <t>-3,9; 3,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 1603,05</t>
+          <t>-0,34; 5,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,89; 1789,53</t>
+          <t>-59,26; 345,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,32; 492,09</t>
+          <t>4,72; 1799,5</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25,5; 2682,03</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,55; 709,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-61,68; 144,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,03; 289,96</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-44,39%</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-41,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-32,17%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 8,08</t>
+          <t>-3,0; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 1,64</t>
+          <t>-6,13; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,46</t>
+          <t>-4,3; 4,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,42; 1144,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-92,95; 123,37</t>
+          <t>-5,01; 2,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-80,94; 895,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-87,39; 114,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 520,94</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,01%</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>102,75%</t>
+          <t>-8,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>40,38%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115,55%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,16</t>
+          <t>-1,76; 0,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,66</t>
+          <t>-0,44; 1,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,25</t>
+          <t>0,29; 2,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,96</t>
+          <t>-0,84; 1,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,61; 83,99</t>
+          <t>-1,31; 2,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 143,3</t>
+          <t>-1,18; 2,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 306,8</t>
+          <t>-59,18; 67,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 102,81</t>
+          <t>-22,38; 147,01</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 343,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-33,62; 124,34</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-28,94; 81,75</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-29,84; 90,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-35,06%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,16%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>60,43%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>20,56%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-15,73%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.8499272864645167</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6402654677016374</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6202577884372115</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.01424829991319987</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7466163472120633</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5637603038330528</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3429113177638471</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3227623048222237</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5407007552743546</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.006518357715812989</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.2115373424871214</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1624512418190228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 0,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,33; 2,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 1,96</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 1,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 2,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 1,94</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-85,05; 56,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-51,1; 164,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-32,14; 296,31</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-50,76; 104,38</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-30,74; 100,93</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-57,88; 90,84</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.524272383381878</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.435201043386451</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5493622504257981</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.469622748719054</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.405701381968075</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.786923130403759</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.8581881781301034</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5250665934539065</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3485555303265854</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5076325201575044</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.3109619363616747</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.5890263307834391</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.7537957577844507</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.078887161122914</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.859086469706248</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.46994998579757</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.742321798421585</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.990644987343257</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.551253281062546</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.685533738228001</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.852623039389433</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.043755940781004</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.000976528729616</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.9018990585327479</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>293,42%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>467,58%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>101,37%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-1,66%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>71,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 1,93</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 3,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 7,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 6,13</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 3,71</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 5,03</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-59,26; 345,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 1799,5</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>25,5; 2682,03</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-36,55; 709,51</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-61,68; 144,06</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-17,03; 289,96</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2929761204149136</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.576183100531184</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.207602569475391</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.140480427041281</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2446170364415967</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.289041720977785</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2505439273031474</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>3.234756329722047</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>4.629493134856467</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.013704840672487</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.05290129560369556</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.8368640698824278</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,37</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>44,39%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-41,59%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-32,17%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.9771077513502027</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4521481146792062</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.751036249836314</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.8260034348653128</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.172849778697102</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1248159671786195</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6001097577122113</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.05883326524253949</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.2493902188556189</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3655125662731799</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.6319082388387043</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.106183077189596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 5,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 2,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 4,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 2,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-87,39; 114,37</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 520,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.762739676373998</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.190341002185797</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.940566114202939</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.132823868590598</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.501311408717669</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>5.356824283818868</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.574997000351703</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>19.71930408782371</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>26.59261994009116</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>7.095086474205471</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.301907117906008</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>3.153957370508949</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,237 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-8,63%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>40,38%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>115,55%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>14,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>13,14%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.634142660205479</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.862918125696447</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5908929629126002</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.9641611834066536</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6763594022062387</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.433935342374295</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2193473179950237</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.341368929299921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 0,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 1,73</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 2,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 1,88</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 2,3</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 2,16</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-59,18; 67,77</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-22,38; 147,01</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 343,85</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-33,62; 124,34</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-28,94; 81,75</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-29,84; 90,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.261449774420303</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.160309310622146</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.422788205760864</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-5.043714108583059</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.8753123083732683</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.163172448619176</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.837131205976691</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.928173936097664</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>2.187066526552077</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.141067458672206</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>4.899569771819026</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.1090747075193427</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.722012080648142</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.222415711185125</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4493621042159435</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5037232450897988</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.5041023304230576</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.05595991431629704</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.433121306377335</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.143768041038818</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.207260575642525</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.1327306666432301</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1628344718152799</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.667268763737894</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.412783010357011</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2267948189573008</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.8364497118482044</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.318606634503584</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.118786426422647</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5904165775577549</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2157190029606571</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.07500030497407015</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3362442684616757</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.2883604612880165</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2856633218254407</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9556855550945401</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.759376723012952</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.608973257475145</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.878602957273789</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.308517225781647</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.320514569961951</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7415339191561132</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.537068738357633</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.336603664810396</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.243395518051178</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.8156516087710851</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.9903458096493239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1169,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
